--- a/trunk/Modelo/Parametros.xlsx
+++ b/trunk/Modelo/Parametros.xlsx
@@ -13790,11 +13790,12 @@
   <dimension ref="A1:G2441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="B2" sqref="B2:D2441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.28515625" bestFit="1" customWidth="1"/>
@@ -14212,7 +14213,7 @@
         <v>52</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">

--- a/trunk/Modelo/Parametros.xlsx
+++ b/trunk/Modelo/Parametros.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9762" uniqueCount="4460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9774" uniqueCount="4463">
   <si>
     <t>01</t>
   </si>
@@ -13399,6 +13399,15 @@
   </si>
   <si>
     <t>Distrito</t>
+  </si>
+  <si>
+    <t>FACTURADO</t>
+  </si>
+  <si>
+    <t>NO FACTURADO</t>
+  </si>
+  <si>
+    <t>Estado de facturacion</t>
   </si>
 </sst>
 </file>
@@ -13787,10 +13796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2441"/>
+  <dimension ref="A1:G2444"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2441"/>
+    <sheetView tabSelected="1" topLeftCell="A2424" workbookViewId="0">
+      <selection activeCell="D2442" sqref="D2442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -69942,6 +69951,75 @@
         <v>4459</v>
       </c>
       <c r="G2441" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2442" s="2">
+        <v>2441</v>
+      </c>
+      <c r="B2442" s="2">
+        <v>34</v>
+      </c>
+      <c r="C2442" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2442" s="2" t="s">
+        <v>4460</v>
+      </c>
+      <c r="E2442" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2442" s="2" t="s">
+        <v>4462</v>
+      </c>
+      <c r="G2442" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2443" s="2">
+        <v>2442</v>
+      </c>
+      <c r="B2443" s="2">
+        <v>34</v>
+      </c>
+      <c r="C2443" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2443" s="2" t="s">
+        <v>4461</v>
+      </c>
+      <c r="E2443" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2443" s="2" t="s">
+        <v>4462</v>
+      </c>
+      <c r="G2443" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2444" s="2">
+        <v>2443</v>
+      </c>
+      <c r="B2444" s="2">
+        <v>34</v>
+      </c>
+      <c r="C2444" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2444" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2444" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2444" s="2" t="s">
+        <v>4462</v>
+      </c>
+      <c r="G2444" s="2" t="s">
         <v>66</v>
       </c>
     </row>

--- a/trunk/Modelo/Parametros.xlsx
+++ b/trunk/Modelo/Parametros.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$2441</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$2444</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9774" uniqueCount="4463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9782" uniqueCount="4465">
   <si>
     <t>01</t>
   </si>
@@ -13408,6 +13408,12 @@
   </si>
   <si>
     <t>Estado de facturacion</t>
+  </si>
+  <si>
+    <t>LOCAL</t>
+  </si>
+  <si>
+    <t>Tipo de ambito</t>
   </si>
 </sst>
 </file>
@@ -13796,10 +13802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2444"/>
+  <dimension ref="A1:G2446"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2424" workbookViewId="0">
-      <selection activeCell="D2442" sqref="D2442"/>
+      <selection activeCell="A2445" sqref="A2445:G2446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -70023,8 +70029,54 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2445" s="2">
+        <v>2444</v>
+      </c>
+      <c r="B2445" s="2">
+        <v>35</v>
+      </c>
+      <c r="C2445" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2445" s="2" t="s">
+        <v>4463</v>
+      </c>
+      <c r="E2445" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2445" s="2" t="s">
+        <v>4464</v>
+      </c>
+      <c r="G2445" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2446" s="2">
+        <v>2445</v>
+      </c>
+      <c r="B2446" s="2">
+        <v>35</v>
+      </c>
+      <c r="C2446" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2446" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2446" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2446" s="2" t="s">
+        <v>4464</v>
+      </c>
+      <c r="G2446" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G2441"/>
+  <autoFilter ref="A1:G2444"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/trunk/Modelo/Parametros.xlsx
+++ b/trunk/Modelo/Parametros.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9798" uniqueCount="4468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9798" uniqueCount="4469">
   <si>
     <t>01</t>
   </si>
@@ -13423,6 +13423,9 @@
   </si>
   <si>
     <t>Estado de liquidacion</t>
+  </si>
+  <si>
+    <t>ESTATAL</t>
   </si>
 </sst>
 </file>
@@ -13813,9 +13816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2450"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64:F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14873,7 +14876,7 @@
         <v>44</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>44</v>
+        <v>4468</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>

--- a/trunk/Modelo/Parametros.xlsx
+++ b/trunk/Modelo/Parametros.xlsx
@@ -13817,8 +13817,8 @@
   <dimension ref="A1:G2450"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64:F75"/>
+      <pane ySplit="1" topLeftCell="A2434" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2442" sqref="D2442:D2444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
